--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H2">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I2">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J2">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.149655</v>
+        <v>1.095307</v>
       </c>
       <c r="N2">
-        <v>3.448965</v>
+        <v>3.285921</v>
       </c>
       <c r="O2">
-        <v>0.4364852193075735</v>
+        <v>0.3507034061686541</v>
       </c>
       <c r="P2">
-        <v>0.4770693178102337</v>
+        <v>0.3546600384155922</v>
       </c>
       <c r="Q2">
-        <v>3.786149231041666</v>
+        <v>2.660706985818333</v>
       </c>
       <c r="R2">
-        <v>34.075343079375</v>
+        <v>23.946362872365</v>
       </c>
       <c r="S2">
-        <v>0.07052953429122401</v>
+        <v>0.03865222245519827</v>
       </c>
       <c r="T2">
-        <v>0.07968986533091439</v>
+        <v>0.03931061513872401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H3">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I3">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J3">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.6721925</v>
+        <v>0.1045275</v>
       </c>
       <c r="N3">
-        <v>1.344385</v>
+        <v>0.209055</v>
       </c>
       <c r="O3">
-        <v>0.2552088154963064</v>
+        <v>0.03346837944822227</v>
       </c>
       <c r="P3">
-        <v>0.1859586382651929</v>
+        <v>0.02256397957558067</v>
       </c>
       <c r="Q3">
-        <v>2.213725958645833</v>
+        <v>0.2539169835125</v>
       </c>
       <c r="R3">
-        <v>13.282355751875</v>
+        <v>1.523501901075</v>
       </c>
       <c r="S3">
-        <v>0.04123795745597905</v>
+        <v>0.003688664623421321</v>
       </c>
       <c r="T3">
-        <v>0.03106261142194871</v>
+        <v>0.002500997634400202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H4">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I4">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J4">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8120446666666666</v>
+        <v>1.923337333333333</v>
       </c>
       <c r="N4">
-        <v>2.436134</v>
+        <v>5.770011999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083059651961201</v>
+        <v>0.6158282143831236</v>
       </c>
       <c r="P4">
-        <v>0.3369720439245733</v>
+        <v>0.6227759820088272</v>
       </c>
       <c r="Q4">
-        <v>2.674299933694444</v>
+        <v>4.672148611197778</v>
       </c>
       <c r="R4">
-        <v>24.06869940325</v>
+        <v>42.04933750078</v>
       </c>
       <c r="S4">
-        <v>0.04981766892126094</v>
+        <v>0.06787253479105659</v>
       </c>
       <c r="T4">
-        <v>0.05628795606451843</v>
+        <v>0.06902865926412083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>8.517274</v>
       </c>
       <c r="I5">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J5">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.149655</v>
+        <v>1.095307</v>
       </c>
       <c r="N5">
-        <v>3.448965</v>
+        <v>3.285921</v>
       </c>
       <c r="O5">
-        <v>0.4364852193075735</v>
+        <v>0.3507034061686541</v>
       </c>
       <c r="P5">
-        <v>0.4770693178102337</v>
+        <v>0.3546600384155922</v>
       </c>
       <c r="Q5">
-        <v>3.263975546823333</v>
+        <v>3.109676611039334</v>
       </c>
       <c r="R5">
-        <v>29.37577992141</v>
+        <v>27.987089499354</v>
       </c>
       <c r="S5">
-        <v>0.06080232479163459</v>
+        <v>0.04517442648674509</v>
       </c>
       <c r="T5">
-        <v>0.06869929205040534</v>
+        <v>0.04594391682888049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>8.517274</v>
       </c>
       <c r="I6">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J6">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.6721925</v>
+        <v>0.1045275</v>
       </c>
       <c r="N6">
-        <v>1.344385</v>
+        <v>0.209055</v>
       </c>
       <c r="O6">
-        <v>0.2552088154963064</v>
+        <v>0.03346837944822227</v>
       </c>
       <c r="P6">
-        <v>0.1859586382651929</v>
+        <v>0.02256397957558067</v>
       </c>
       <c r="Q6">
-        <v>1.908415901081667</v>
+        <v>0.296763119345</v>
       </c>
       <c r="R6">
-        <v>11.45049540649</v>
+        <v>1.78057871607</v>
       </c>
       <c r="S6">
-        <v>0.03555054925825647</v>
+        <v>0.004311092565457217</v>
       </c>
       <c r="T6">
-        <v>0.02677855465137634</v>
+        <v>0.002923017787908355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>8.517274</v>
       </c>
       <c r="I7">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J7">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8120446666666666</v>
+        <v>1.923337333333333</v>
       </c>
       <c r="N7">
-        <v>2.436134</v>
+        <v>5.770011999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083059651961201</v>
+        <v>0.6158282143831236</v>
       </c>
       <c r="P7">
-        <v>0.3369720439245733</v>
+        <v>0.6227759820088272</v>
       </c>
       <c r="Q7">
-        <v>2.305468975412889</v>
+        <v>5.460530354143112</v>
       </c>
       <c r="R7">
-        <v>20.749220778716</v>
+        <v>49.144773187288</v>
       </c>
       <c r="S7">
-        <v>0.0429469741513596</v>
+        <v>0.07932539550452886</v>
       </c>
       <c r="T7">
-        <v>0.04852489982934654</v>
+        <v>0.0806766052591168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H8">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I8">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J8">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.149655</v>
+        <v>1.095307</v>
       </c>
       <c r="N8">
-        <v>3.448965</v>
+        <v>3.285921</v>
       </c>
       <c r="O8">
-        <v>0.4364852193075735</v>
+        <v>0.3507034061686541</v>
       </c>
       <c r="P8">
-        <v>0.4770693178102337</v>
+        <v>0.3546600384155922</v>
       </c>
       <c r="Q8">
-        <v>7.457366685296665</v>
+        <v>8.976807945002333</v>
       </c>
       <c r="R8">
-        <v>67.11630016766999</v>
+        <v>80.791271505021</v>
       </c>
       <c r="S8">
-        <v>0.1389180846440531</v>
+        <v>0.1304065346079833</v>
       </c>
       <c r="T8">
-        <v>0.1569606770917051</v>
+        <v>0.13262784823023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H9">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I9">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J9">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.6721925</v>
+        <v>0.1045275</v>
       </c>
       <c r="N9">
-        <v>1.344385</v>
+        <v>0.209055</v>
       </c>
       <c r="O9">
-        <v>0.2552088154963064</v>
+        <v>0.03346837944822227</v>
       </c>
       <c r="P9">
-        <v>0.1859586382651929</v>
+        <v>0.02256397957558067</v>
       </c>
       <c r="Q9">
-        <v>4.360252384938333</v>
+        <v>0.8566760665925</v>
       </c>
       <c r="R9">
-        <v>26.16151430963</v>
+        <v>5.140056399555</v>
       </c>
       <c r="S9">
-        <v>0.08122410167580506</v>
+        <v>0.01244497574308936</v>
       </c>
       <c r="T9">
-        <v>0.0611822908820275</v>
+        <v>0.008437973649327156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H10">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I10">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J10">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8120446666666666</v>
+        <v>1.923337333333333</v>
       </c>
       <c r="N10">
-        <v>2.436134</v>
+        <v>5.770011999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083059651961201</v>
+        <v>0.6158282143831236</v>
       </c>
       <c r="P10">
-        <v>0.3369720439245733</v>
+        <v>0.6227759820088272</v>
       </c>
       <c r="Q10">
-        <v>5.26741922069911</v>
+        <v>15.76309642391244</v>
       </c>
       <c r="R10">
-        <v>47.406772986292</v>
+        <v>141.867867815212</v>
       </c>
       <c r="S10">
-        <v>0.09812308017514114</v>
+        <v>0.228991284199005</v>
       </c>
       <c r="T10">
-        <v>0.1108672433979829</v>
+        <v>0.2328918667924779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H11">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I11">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J11">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.149655</v>
+        <v>1.095307</v>
       </c>
       <c r="N11">
-        <v>3.448965</v>
+        <v>3.285921</v>
       </c>
       <c r="O11">
-        <v>0.4364852193075735</v>
+        <v>0.3507034061686541</v>
       </c>
       <c r="P11">
-        <v>0.4770693178102337</v>
+        <v>0.3546600384155922</v>
       </c>
       <c r="Q11">
-        <v>2.295685137785</v>
+        <v>0.4095906003035</v>
       </c>
       <c r="R11">
-        <v>13.77411082671</v>
+        <v>2.457543601821</v>
       </c>
       <c r="S11">
-        <v>0.04276471786156034</v>
+        <v>0.005950142981873625</v>
       </c>
       <c r="T11">
-        <v>0.03221264813905852</v>
+        <v>0.004034330859878001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H12">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I12">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J12">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.6721925</v>
+        <v>0.1045275</v>
       </c>
       <c r="N12">
-        <v>1.344385</v>
+        <v>0.209055</v>
       </c>
       <c r="O12">
-        <v>0.2552088154963064</v>
+        <v>0.03346837944822227</v>
       </c>
       <c r="P12">
-        <v>0.1859586382651929</v>
+        <v>0.02256397957558067</v>
       </c>
       <c r="Q12">
-        <v>1.3422655770475</v>
+        <v>0.03908811088875</v>
       </c>
       <c r="R12">
-        <v>5.36906230819</v>
+        <v>0.156352443555</v>
       </c>
       <c r="S12">
-        <v>0.02500412959640666</v>
+        <v>0.0005678349271371363</v>
       </c>
       <c r="T12">
-        <v>0.01255628890650621</v>
+        <v>0.0002566699071316065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H13">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I13">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J13">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8120446666666666</v>
+        <v>1.923337333333333</v>
       </c>
       <c r="N13">
-        <v>2.436134</v>
+        <v>5.770011999999999</v>
       </c>
       <c r="O13">
-        <v>0.3083059651961201</v>
+        <v>0.6158282143831236</v>
       </c>
       <c r="P13">
-        <v>0.3369720439245733</v>
+        <v>0.6227759820088272</v>
       </c>
       <c r="Q13">
-        <v>1.621528956499333</v>
+        <v>0.7192329574686667</v>
       </c>
       <c r="R13">
-        <v>9.729173738996</v>
+        <v>4.315397744812</v>
       </c>
       <c r="S13">
-        <v>0.03020633238752914</v>
+        <v>0.01044833287444421</v>
       </c>
       <c r="T13">
-        <v>0.02275300774626509</v>
+        <v>0.007084204846515295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H14">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I14">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J14">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.149655</v>
+        <v>1.095307</v>
       </c>
       <c r="N14">
-        <v>3.448965</v>
+        <v>3.285921</v>
       </c>
       <c r="O14">
-        <v>0.4364852193075735</v>
+        <v>0.3507034061686541</v>
       </c>
       <c r="P14">
-        <v>0.4770693178102337</v>
+        <v>0.3546600384155922</v>
       </c>
       <c r="Q14">
-        <v>6.628116318394999</v>
+        <v>8.984624055754335</v>
       </c>
       <c r="R14">
-        <v>59.65304686555499</v>
+        <v>80.861616501789</v>
       </c>
       <c r="S14">
-        <v>0.1234705577191014</v>
+        <v>0.1305200796368538</v>
       </c>
       <c r="T14">
-        <v>0.1395068351981504</v>
+        <v>0.1327433273578796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H15">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I15">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J15">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6721925</v>
+        <v>0.1045275</v>
       </c>
       <c r="N15">
-        <v>1.344385</v>
+        <v>0.209055</v>
       </c>
       <c r="O15">
-        <v>0.2552088154963064</v>
+        <v>0.03346837944822227</v>
       </c>
       <c r="P15">
-        <v>0.1859586382651929</v>
+        <v>0.02256397957558067</v>
       </c>
       <c r="Q15">
-        <v>3.8753974699825</v>
+        <v>0.8574219748325</v>
       </c>
       <c r="R15">
-        <v>23.252384819895</v>
+        <v>5.144531848995</v>
       </c>
       <c r="S15">
-        <v>0.07219207750985912</v>
+        <v>0.01245581158911724</v>
       </c>
       <c r="T15">
-        <v>0.05437889240333416</v>
+        <v>0.008445320596813351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H16">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I16">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J16">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8120446666666666</v>
+        <v>1.923337333333333</v>
       </c>
       <c r="N16">
-        <v>2.436134</v>
+        <v>5.770011999999999</v>
       </c>
       <c r="O16">
-        <v>0.3083059651961201</v>
+        <v>0.6158282143831236</v>
       </c>
       <c r="P16">
-        <v>0.3369720439245733</v>
+        <v>0.6227759820088272</v>
       </c>
       <c r="Q16">
-        <v>4.681688425135333</v>
+        <v>15.77682135912311</v>
       </c>
       <c r="R16">
-        <v>42.13519582621799</v>
+        <v>141.991392232108</v>
       </c>
       <c r="S16">
-        <v>0.08721190956082925</v>
+        <v>0.229190667014089</v>
       </c>
       <c r="T16">
-        <v>0.0985389368864604</v>
+        <v>0.2330946458465964</v>
       </c>
     </row>
   </sheetData>
